--- a/TOP/Mumbai.xlsx
+++ b/TOP/Mumbai.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Mount Mary Church</t>
-  </si>
-  <si>
-    <t>Mani Bhavan Gandhi Sanghralaya</t>
   </si>
   <si>
     <t>Prithvi Theatre</t>
@@ -171,10 +168,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -352,25 +349,25 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>18.959748</v>
+        <v>19.105798</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>72.811407</v>
+        <v>72.82567</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1020</v>
+        <v>960</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -378,25 +375,25 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>19.105798</v>
+        <v>18.92219</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>72.82567</v>
+        <v>72.833658</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>720</v>
+        <v>960</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>960</v>
+        <v>1320</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -404,25 +401,25 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>18.92219</v>
+        <v>19.227259</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>72.833658</v>
+        <v>72.805241</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>960</v>
+        <v>540</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1320</v>
+        <v>1020</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -430,79 +427,54 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>19.227259</v>
+        <v>19.205898</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>72.805241</v>
+        <v>72.906795</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>1020</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>19.205898</v>
+        <v>19.135274</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>72.906795</v>
+        <v>72.906878</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>19.135274</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>72.906878</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
